--- a/cmip6/models/awi-esm-1-1-lr/cmip6_awi_awi-esm-1-1-lr_toplevel.xlsx
+++ b/cmip6/models/awi-esm-1-1-lr/cmip6_awi_awi-esm-1-1-lr_toplevel.xlsx
@@ -40,7 +40,7 @@
     <t>AWI-ESM-1-1-LR</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Top Level</t>

--- a/cmip6/models/awi-esm-1-1-lr/cmip6_awi_awi-esm-1-1-lr_toplevel.xlsx
+++ b/cmip6/models/awi-esm-1-1-lr/cmip6_awi_awi-esm-1-1-lr_toplevel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="420">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -331,25 +331,25 @@
     <t>cmip6.toplevel.key_properties.software_properties.coupler</t>
   </si>
   <si>
-    <t>OASIS</t>
-  </si>
-  <si>
-    <t>OASIS3-MCT</t>
-  </si>
-  <si>
-    <t>ESMF</t>
-  </si>
-  <si>
-    <t>NUOPC</t>
-  </si>
-  <si>
-    <t>Bespoke</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>OASIS: The OASIS coupler - prior to OASIS-MCT</t>
+  </si>
+  <si>
+    <t>OASIS3-MCT: The MCT variant of the OASIS coupler</t>
+  </si>
+  <si>
+    <t>ESMF: Vanilla Earth System Modelling Framework</t>
+  </si>
+  <si>
+    <t>NUOPC: National Unified Operational Prediction Capability variant of ESMF</t>
+  </si>
+  <si>
+    <t>Bespoke: Customised coupler developed for this model</t>
+  </si>
+  <si>
+    <t>Unknown: It is not known what/if-a coupler is used</t>
+  </si>
+  <si>
+    <t>None: No coupler is used</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -757,22 +757,22 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>N/A: Not applicable - forcing agent is not included</t>
+  </si>
+  <si>
+    <t>M: Emissions and concentrations determined by the model state rather than externally prescribed</t>
+  </si>
+  <si>
+    <t>Y: Prescribed concentrations, distributions or time series data</t>
+  </si>
+  <si>
+    <t>E: Concentrations calculated interactively driven by prescribed emissions or precursor emissions</t>
+  </si>
+  <si>
+    <t>ES: Surface emissions (and 3-D concentrations away from the surface) derived via the model from the prescribed surface concentration</t>
+  </si>
+  <si>
+    <t>C: Fixed prescribed climatology of concentrations with no year-to-year variability</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.2.2 </t>
@@ -898,13 +898,16 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
   </si>
   <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
+    <t>N/A: Not applicabale (CFCs not included or emissions and concentrations determined by the model state)</t>
+  </si>
+  <si>
+    <t>Option 1: CFCs, including CFC-12, are provided as actual concentrations</t>
+  </si>
+  <si>
+    <t>Option 2: CFC-12 is provided as actual concentrations and any other gases are provided as an equivalence concentration of CFC-11</t>
+  </si>
+  <si>
+    <t>Option 3: Ozone depleting gases, including CFC-12, are provided as an equivalence concentration of CFC-12 and all other fluorinated gases are provided as an equivalence concentration of HFC-134a</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.7.3 </t>
@@ -1117,19 +1120,19 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
-    <t>Type A</t>
-  </si>
-  <si>
-    <t>Type B</t>
-  </si>
-  <si>
-    <t>Type C</t>
-  </si>
-  <si>
-    <t>Type D</t>
-  </si>
-  <si>
-    <t>Type E</t>
+    <t>Type A: Explosive volcanic aerosol returns rapidly to zero (or near-zero) background.</t>
+  </si>
+  <si>
+    <t>Type B: Explosive volcanic aerosol returns rapidly to constant (average volcano)</t>
+  </si>
+  <si>
+    <t>Type C: Explosive volcanic aerosol returns slowly (over several decades) to constant (average volcano) background.</t>
+  </si>
+  <si>
+    <t>Type D: Explosive volcanic aerosol set to zero</t>
+  </si>
+  <si>
+    <t>Type E: Explosive volcanic aerosol set to constant (average volcano) background</t>
   </si>
   <si>
     <t>2.1.15.3 *</t>
@@ -1255,16 +1258,19 @@
     <t>cmip6.toplevel.radiative_forcings.other.solar.provision</t>
   </si>
   <si>
-    <t>Irradiance</t>
-  </si>
-  <si>
-    <t>Proton</t>
-  </si>
-  <si>
-    <t>Electron</t>
-  </si>
-  <si>
-    <t>Cosmic ray</t>
+    <t>N/A: Not applicable - solar forcing is not included</t>
+  </si>
+  <si>
+    <t>irradiance: Solar irradiance forcing</t>
+  </si>
+  <si>
+    <t>proton: Proton pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>electron: Electron pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>cosmic ray: Cosmic ray pathway to solar forcing</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.19.2 </t>
@@ -3778,16 +3784,16 @@
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="B94" s="11"/>
       <c r="AA94" s="6" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AE94" s="6" t="s">
         <v>111</v>
@@ -3795,7 +3801,7 @@
     </row>
     <row r="96" spans="1:33" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>253</v>
@@ -3809,7 +3815,7 @@
         <v>254</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -3822,20 +3828,20 @@
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>243</v>
@@ -3849,7 +3855,7 @@
         <v>244</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
@@ -3883,7 +3889,7 @@
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>253</v>
@@ -3897,7 +3903,7 @@
         <v>254</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
@@ -3910,20 +3916,20 @@
     </row>
     <row r="116" spans="1:33" ht="24" customHeight="1">
       <c r="A116" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:33" ht="24" customHeight="1">
       <c r="B117" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:33" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>243</v>
@@ -3937,7 +3943,7 @@
         <v>244</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
@@ -3971,7 +3977,7 @@
     </row>
     <row r="124" spans="1:33" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>253</v>
@@ -3985,7 +3991,7 @@
         <v>254</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
@@ -3998,20 +4004,20 @@
     </row>
     <row r="130" spans="1:33" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:33" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:33" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>243</v>
@@ -4025,7 +4031,7 @@
         <v>244</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:33" ht="24" customHeight="1">
@@ -4059,7 +4065,7 @@
     </row>
     <row r="138" spans="1:33" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>253</v>
@@ -4073,7 +4079,7 @@
         <v>254</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="24" customHeight="1">
@@ -4086,20 +4092,20 @@
     </row>
     <row r="144" spans="1:33" ht="24" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
       <c r="B145" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>243</v>
@@ -4113,7 +4119,7 @@
         <v>244</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
@@ -4147,7 +4153,7 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>253</v>
@@ -4161,7 +4167,7 @@
         <v>254</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
@@ -4174,20 +4180,20 @@
     </row>
     <row r="158" spans="1:33" ht="24" customHeight="1">
       <c r="A158" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
       <c r="B159" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:33" ht="24" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>243</v>
@@ -4201,7 +4207,7 @@
         <v>244</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:33" ht="24" customHeight="1">
@@ -4235,10 +4241,10 @@
     </row>
     <row r="166" spans="1:33" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:33" ht="24" customHeight="1">
@@ -4246,10 +4252,10 @@
         <v>116</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
@@ -4257,7 +4263,7 @@
     </row>
     <row r="170" spans="1:33" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>253</v>
@@ -4271,7 +4277,7 @@
         <v>254</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:33" ht="24" customHeight="1">
@@ -4284,20 +4290,20 @@
     </row>
     <row r="176" spans="1:33" ht="24" customHeight="1">
       <c r="A176" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
       <c r="B177" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="179" spans="1:33" ht="24" customHeight="1">
       <c r="A179" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>243</v>
@@ -4311,7 +4317,7 @@
         <v>244</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="181" spans="1:33" ht="24" customHeight="1">
@@ -4345,10 +4351,10 @@
     </row>
     <row r="184" spans="1:33" ht="24" customHeight="1">
       <c r="A184" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="185" spans="1:33" ht="24" customHeight="1">
@@ -4356,10 +4362,10 @@
         <v>116</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
@@ -4367,10 +4373,10 @@
     </row>
     <row r="188" spans="1:33" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="189" spans="1:33" ht="24" customHeight="1">
@@ -4378,10 +4384,10 @@
         <v>116</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="190" spans="1:33" ht="24" customHeight="1">
@@ -4389,7 +4395,7 @@
     </row>
     <row r="192" spans="1:33" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>253</v>
@@ -4403,7 +4409,7 @@
         <v>254</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
@@ -4416,20 +4422,20 @@
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
       <c r="A198" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="B199" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="201" spans="1:33" ht="24" customHeight="1">
       <c r="A201" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>243</v>
@@ -4443,7 +4449,7 @@
         <v>244</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
@@ -4477,7 +4483,7 @@
     </row>
     <row r="206" spans="1:33" ht="24" customHeight="1">
       <c r="A206" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>253</v>
@@ -4491,7 +4497,7 @@
         <v>254</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
@@ -4504,20 +4510,20 @@
     </row>
     <row r="212" spans="1:33" ht="24" customHeight="1">
       <c r="A212" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="213" spans="1:33" ht="24" customHeight="1">
       <c r="B213" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="215" spans="1:33" ht="24" customHeight="1">
       <c r="A215" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>243</v>
@@ -4531,7 +4537,7 @@
         <v>244</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="217" spans="1:33" ht="24" customHeight="1">
@@ -4565,10 +4571,10 @@
     </row>
     <row r="220" spans="1:33" ht="24" customHeight="1">
       <c r="A220" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:33" ht="24" customHeight="1">
@@ -4576,28 +4582,28 @@
         <v>101</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="222" spans="1:33" ht="24" customHeight="1">
       <c r="B222" s="11"/>
       <c r="AA222" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB222" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC222" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD222" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE222" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF222" s="6" t="s">
         <v>111</v>
@@ -4605,10 +4611,10 @@
     </row>
     <row r="224" spans="1:33" ht="24" customHeight="1">
       <c r="A224" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="225" spans="1:33" ht="24" customHeight="1">
@@ -4616,28 +4622,28 @@
         <v>101</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="226" spans="1:33" ht="24" customHeight="1">
       <c r="B226" s="11"/>
       <c r="AA226" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB226" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC226" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD226" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE226" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF226" s="6" t="s">
         <v>111</v>
@@ -4645,7 +4651,7 @@
     </row>
     <row r="228" spans="1:33" ht="24" customHeight="1">
       <c r="A228" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>253</v>
@@ -4659,7 +4665,7 @@
         <v>254</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="230" spans="1:33" ht="24" customHeight="1">
@@ -4672,20 +4678,20 @@
     </row>
     <row r="234" spans="1:33" ht="24" customHeight="1">
       <c r="A234" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="235" spans="1:33" ht="24" customHeight="1">
       <c r="B235" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="1:33" ht="24" customHeight="1">
       <c r="A237" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>243</v>
@@ -4699,7 +4705,7 @@
         <v>244</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:33" ht="24" customHeight="1">
@@ -4733,10 +4739,10 @@
     </row>
     <row r="242" spans="1:32" ht="24" customHeight="1">
       <c r="A242" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="243" spans="1:32" ht="24" customHeight="1">
@@ -4744,28 +4750,28 @@
         <v>101</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="244" spans="1:32" ht="24" customHeight="1">
       <c r="B244" s="11"/>
       <c r="AA244" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB244" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC244" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD244" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE244" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF244" s="6" t="s">
         <v>111</v>
@@ -4773,10 +4779,10 @@
     </row>
     <row r="246" spans="1:32" ht="24" customHeight="1">
       <c r="A246" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:32" ht="24" customHeight="1">
@@ -4784,28 +4790,28 @@
         <v>101</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="248" spans="1:32" ht="24" customHeight="1">
       <c r="B248" s="11"/>
       <c r="AA248" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB248" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC248" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD248" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE248" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF248" s="6" t="s">
         <v>111</v>
@@ -4813,7 +4819,7 @@
     </row>
     <row r="250" spans="1:32" ht="24" customHeight="1">
       <c r="A250" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>253</v>
@@ -4827,7 +4833,7 @@
         <v>254</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="252" spans="1:32" ht="24" customHeight="1">
@@ -4840,20 +4846,20 @@
     </row>
     <row r="256" spans="1:32" ht="24" customHeight="1">
       <c r="A256" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="257" spans="1:33" ht="24" customHeight="1">
       <c r="B257" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="259" spans="1:33" ht="24" customHeight="1">
       <c r="A259" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>243</v>
@@ -4867,7 +4873,7 @@
         <v>244</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:33" ht="24" customHeight="1">
@@ -4901,7 +4907,7 @@
     </row>
     <row r="264" spans="1:33" ht="24" customHeight="1">
       <c r="A264" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>253</v>
@@ -4915,7 +4921,7 @@
         <v>254</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="266" spans="1:33" ht="24" customHeight="1">
@@ -4928,20 +4934,20 @@
     </row>
     <row r="270" spans="1:33" ht="24" customHeight="1">
       <c r="A270" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="271" spans="1:33" ht="24" customHeight="1">
       <c r="B271" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="273" spans="1:33" ht="24" customHeight="1">
       <c r="A273" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>243</v>
@@ -4955,7 +4961,7 @@
         <v>244</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="275" spans="1:33" ht="24" customHeight="1">
@@ -4989,10 +4995,10 @@
     </row>
     <row r="278" spans="1:33" ht="24" customHeight="1">
       <c r="A278" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="279" spans="1:33" ht="24" customHeight="1">
@@ -5000,10 +5006,10 @@
         <v>116</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
@@ -5011,7 +5017,7 @@
     </row>
     <row r="282" spans="1:33" ht="24" customHeight="1">
       <c r="A282" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>253</v>
@@ -5025,7 +5031,7 @@
         <v>254</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="284" spans="1:33" ht="24" customHeight="1">
@@ -5038,20 +5044,20 @@
     </row>
     <row r="288" spans="1:33" ht="24" customHeight="1">
       <c r="A288" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="289" spans="1:32" ht="24" customHeight="1">
       <c r="B289" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="291" spans="1:32" ht="24" customHeight="1">
       <c r="A291" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B291" s="9" t="s">
         <v>243</v>
@@ -5062,10 +5068,10 @@
         <v>101</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="293" spans="1:32" ht="24" customHeight="1">
@@ -5076,19 +5082,19 @@
     <row r="294" spans="1:32" ht="24" customHeight="1">
       <c r="B294" s="11"/>
       <c r="AA294" s="6" t="s">
-        <v>246</v>
+        <v>413</v>
       </c>
       <c r="AB294" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AC294" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AD294" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AE294" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF294" s="6" t="s">
         <v>111</v>
@@ -5096,7 +5102,7 @@
     </row>
     <row r="296" spans="1:32" ht="24" customHeight="1">
       <c r="A296" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>253</v>
@@ -5110,7 +5116,7 @@
         <v>254</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="298" spans="1:32" ht="24" customHeight="1">
